--- a/notebooks/COL6A1/input/COL6A1_BTHLM1A_individuals.xlsx
+++ b/notebooks/COL6A1/input/COL6A1_BTHLM1A_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/COL6A1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE54387-269F-6F48-ABAE-691EB808F1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1125D57E-D3FC-9341-9BCA-CDEFBCA4AB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5860" yWindow="5200" windowWidth="37600" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="5340" windowWidth="37600" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="131">
   <si>
     <t>PMID</t>
   </si>
@@ -401,6 +401,18 @@
   </si>
   <si>
     <t>c.928_930del</t>
+  </si>
+  <si>
+    <t>Arthrogryposis multiplex congenita</t>
+  </si>
+  <si>
+    <t>HP:0002804</t>
+  </si>
+  <si>
+    <t>Congenital hip dislocation</t>
+  </si>
+  <si>
+    <t>HP:0001374</t>
   </si>
 </sst>
 </file>
@@ -779,15 +791,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB6"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="AZ4" sqref="AZ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -950,8 +962,14 @@
       <c r="BB1" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="BC1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1114,8 +1132,14 @@
       <c r="BB2" t="s">
         <v>122</v>
       </c>
+      <c r="BC2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1273,7 +1297,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:54" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -1374,7 +1398,7 @@
         <v>46</v>
       </c>
       <c r="AZ4" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="BA4" t="s">
         <v>110</v>
@@ -1382,8 +1406,14 @@
       <c r="BB4" t="s">
         <v>94</v>
       </c>
+      <c r="BC4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -1490,7 +1520,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>106</v>
       </c>
